--- a/Outside_shaded_small.xlsx
+++ b/Outside_shaded_small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batra\Documents\Emily Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\OneDrive\Documents\Emily_Capstone\Museum_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1913C0C-63A3-4A89-9687-9F42D91F5E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FF6E79-FD1F-4FDB-8C89-4511A2ED20B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>munia_ventral_2_2024-01-16_11-04-23</t>
-  </si>
-  <si>
     <t>throat</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>nape</t>
   </si>
   <si>
-    <t>woodpecker_dorsal_14_2024-01-16_11-13-00</t>
-  </si>
-  <si>
     <t>back_dark</t>
   </si>
   <si>
@@ -163,37 +157,43 @@
     <t>belly_full</t>
   </si>
   <si>
-    <t>alan's.hummingbird_ventral_3_2024-01-16_11-04-56</t>
+    <t>Lonchura.punctulata_ventral_2_2024-01-16_11-04-23</t>
   </si>
   <si>
-    <t>alan's.hummingbird_dorsal_4_2024-01-16_11-05-24</t>
+    <t>Panterpe.insignis_ventral_5_2024-01-16_11-06-05</t>
   </si>
   <si>
-    <t>fiery.throated.hummingbird_ventral_5_2024-01-16_11-06-05</t>
+    <t>Selasphorus.sasin_ventral_3_2024-01-16_11-04-56</t>
   </si>
   <si>
-    <t>House.finch_ventral_6_2024-01-16_11-06-57</t>
+    <t>Selasphorus.sasin_dorsal_4_2024-01-16_11-05-24</t>
   </si>
   <si>
-    <t>Darwin's.finch_ventral_7_2024-01-16_11-07-56</t>
+    <t>Campylorhyncus.brunneicapillus_dorsal_15_2024-01-16_11-13-39</t>
   </si>
   <si>
-    <t>Ramphocelus.c_ventral_8_2024-01-16_11-09-02</t>
+    <t>Picoides.nuttallii_dorsal_14_2024-01-16_11-13-00</t>
   </si>
   <si>
-    <t>Ramphocelus.n_ventral_9_2024-01-16_11-09-34</t>
+    <t>Haemorhous.mexicanus_ventral_6_2024-01-16_11-06-57</t>
   </si>
   <si>
-    <t>Ramphocelus.n_dorsal_2_11_2024-01-16_11-10-35</t>
+    <t>Ramphocelus.nigrogularis_ventral_9_2024-01-16_11-09-34</t>
   </si>
   <si>
-    <t>summer.tanager_ventral_12_2024-01-16_11-11-20</t>
+    <t>Ramphocelus.nigrogularis_dorsal_2_11_2024-01-16_11-10-35</t>
   </si>
   <si>
-    <t>palm.tanager_ventral_13_2024-01-16_11-12-11</t>
+    <t>Ramphocelus.carbo_ventral_8_2024-01-16_11-09-02</t>
   </si>
   <si>
-    <t>cactus.wren_dorsal_15_2024-01-16_11-13-39</t>
+    <t>Thraupis.palmarum_ventral_13_2024-01-16_11-12-11</t>
+  </si>
+  <si>
+    <t>Piranga.rubra_ventral_12_2024-01-16_11-11-20</t>
+  </si>
+  <si>
+    <t>Geospiza.fuliginosa_ventral_7_2024-01-16_11-07-56</t>
   </si>
 </sst>
 </file>
@@ -564,16 +564,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:MB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:340" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>20</v>
       </c>
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2632,12 +2632,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
       </c>
       <c r="C7">
         <v>175</v>
@@ -2652,7 +2652,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -3645,12 +3645,12 @@
         <v>8.7912812829017639E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>183</v>
@@ -3665,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -4658,12 +4658,12 @@
         <v>3.7369128316640854E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>176</v>
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -5671,12 +5671,12 @@
         <v>4.5256305485963821E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>156</v>
@@ -5691,7 +5691,7 @@
         <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -6684,12 +6684,12 @@
         <v>9.0230502188205719E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>216</v>
@@ -6704,7 +6704,7 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -7697,12 +7697,12 @@
         <v>9.9445365369319916E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>220</v>
@@ -7717,7 +7717,7 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -8710,12 +8710,12 @@
         <v>0.13394507765769958</v>
       </c>
     </row>
-    <row r="13" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>253</v>
@@ -8730,7 +8730,7 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -9723,12 +9723,12 @@
         <v>3.543342649936676E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>242</v>
@@ -9743,7 +9743,7 @@
         <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -10736,12 +10736,12 @@
         <v>3.399963304400444E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>248</v>
@@ -10756,7 +10756,7 @@
         <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -11749,12 +11749,12 @@
         <v>3.8445707410573959E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>213</v>
@@ -11769,7 +11769,7 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -12762,12 +12762,12 @@
         <v>8.6488083004951477E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>197</v>
@@ -12782,7 +12782,7 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -13775,12 +13775,12 @@
         <v>0.11182046681642532</v>
       </c>
     </row>
-    <row r="18" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>201</v>
@@ -13795,7 +13795,7 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -14788,12 +14788,12 @@
         <v>4.9611747264862061E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>251</v>
@@ -14808,7 +14808,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -15801,12 +15801,12 @@
         <v>4.4253107160329819E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>220</v>
@@ -15821,7 +15821,7 @@
         <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -16814,12 +16814,12 @@
         <v>4.6906843781471252E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>302</v>
@@ -16834,7 +16834,7 @@
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -17827,12 +17827,12 @@
         <v>3.4735716879367828E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>275</v>
@@ -17847,7 +17847,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -18840,12 +18840,12 @@
         <v>0.11765041947364807</v>
       </c>
     </row>
-    <row r="23" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>246</v>
@@ -18860,7 +18860,7 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -19853,12 +19853,12 @@
         <v>0.25479826331138611</v>
       </c>
     </row>
-    <row r="24" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>329</v>
@@ -19873,7 +19873,7 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -20866,12 +20866,12 @@
         <v>0.11542589962482452</v>
       </c>
     </row>
-    <row r="25" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>231</v>
@@ -20886,7 +20886,7 @@
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -21879,12 +21879,12 @@
         <v>5.8342892676591873E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>254</v>
@@ -21899,7 +21899,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -22892,12 +22892,12 @@
         <v>0.15104782581329346</v>
       </c>
     </row>
-    <row r="27" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>201</v>
@@ -22912,7 +22912,7 @@
         <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -23905,12 +23905,12 @@
         <v>0.10064104944467545</v>
       </c>
     </row>
-    <row r="28" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>222</v>
@@ -23925,7 +23925,7 @@
         <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -24918,12 +24918,12 @@
         <v>5.4283775389194489E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>243</v>
@@ -24938,7 +24938,7 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -25931,12 +25931,12 @@
         <v>4.0537048131227493E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
       </c>
       <c r="C30">
         <v>232</v>
@@ -25951,7 +25951,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -26944,12 +26944,12 @@
         <v>8.7551318109035492E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>214</v>
@@ -26964,7 +26964,7 @@
         <v>141</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -27957,12 +27957,12 @@
         <v>0.14316545426845551</v>
       </c>
     </row>
-    <row r="32" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>263</v>
@@ -27977,7 +27977,7 @@
         <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -28970,12 +28970,12 @@
         <v>4.2209193110466003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>286</v>
@@ -28990,7 +28990,7 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -29983,12 +29983,12 @@
         <v>4.533718153834343E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>268</v>
@@ -30003,7 +30003,7 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -30996,12 +30996,12 @@
         <v>9.4806335866451263E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>206</v>
@@ -31016,7 +31016,7 @@
         <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
